--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3307235.262822674</v>
+        <v>3306400.94040729</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5736895.963613645</v>
+        <v>5736895.963613643</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169739.126259459</v>
+        <v>1134377.260519893</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5927685.911326663</v>
+        <v>5932760.496789679</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>132.3848771897998</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>310.6935082277687</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9.982115371767495</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>70.90884974000093</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -873,19 +873,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>80.02871049750352</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>101.6302174766832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>71.31157381942172</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1135,10 +1135,10 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>80.02871049750352</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1147,10 +1147,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>193.4795097704822</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1296,22 +1296,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>28.77201408958031</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415066</v>
+        <v>380.6192620936323</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535246</v>
+        <v>380.5236390056503</v>
       </c>
       <c r="D11" t="n">
-        <v>370.920348881532</v>
+        <v>374.9195848336578</v>
       </c>
       <c r="E11" t="n">
-        <v>380.697871601935</v>
+        <v>384.69710755406</v>
       </c>
       <c r="F11" t="n">
-        <v>387.3211661995113</v>
+        <v>391.320402151637</v>
       </c>
       <c r="G11" t="n">
-        <v>375.1420595397581</v>
+        <v>379.1412954918839</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722212</v>
+        <v>282.2997066243469</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975957</v>
+        <v>59.9885392818853</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275022</v>
+        <v>48.44001939774177</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862718</v>
+        <v>194.4847134383975</v>
       </c>
       <c r="U11" t="n">
-        <v>224.990945096747</v>
+        <v>228.9901810488727</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905461</v>
+        <v>320.8394733426719</v>
       </c>
       <c r="W11" t="n">
-        <v>350.4237561298451</v>
+        <v>354.4229920819708</v>
       </c>
       <c r="X11" t="n">
-        <v>367.138022126399</v>
+        <v>371.1372580785247</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950528</v>
+        <v>371.4276005471785</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>160.3230035558917</v>
       </c>
       <c r="C13" t="n">
-        <v>44.65330832841629</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501635</v>
+        <v>24.6920489012641</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>159.0281446646766</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6543099067269</v>
+        <v>211.6535458588527</v>
       </c>
       <c r="U13" t="n">
-        <v>250.4712242529991</v>
+        <v>254.4704602051248</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>245.647181835661</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198764</v>
+        <v>250.7792620720021</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925755</v>
+        <v>210.4607177447012</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>196.9886358509107</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415066</v>
+        <v>380.6192620936323</v>
       </c>
       <c r="C14" t="n">
-        <v>376.5244030535246</v>
+        <v>380.5236390056503</v>
       </c>
       <c r="D14" t="n">
-        <v>370.920348881532</v>
+        <v>374.9195848336578</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019343</v>
+        <v>384.69710755406</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995113</v>
+        <v>391.320402151637</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397581</v>
+        <v>379.1412954918839</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722212</v>
+        <v>282.2997066243469</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332976053</v>
+        <v>59.9885392818853</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275022</v>
+        <v>48.44001939774177</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862718</v>
+        <v>194.4847134383975</v>
       </c>
       <c r="U14" t="n">
-        <v>224.990945096747</v>
+        <v>228.9901810488727</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905461</v>
+        <v>320.8394733426719</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298451</v>
+        <v>354.4229920819708</v>
       </c>
       <c r="X14" t="n">
-        <v>367.138022126399</v>
+        <v>371.1372580785247</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950528</v>
+        <v>371.4276005471785</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>75.60603984991846</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>140.0781813894997</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501635</v>
+        <v>44.93687106765586</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>159.0281446646766</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6543099067269</v>
+        <v>211.6535458588527</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>254.4704602051248</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835353</v>
+        <v>245.647181835661</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>250.7792620720021</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925755</v>
+        <v>210.4607177447012</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.9893998987849</v>
+        <v>196.9886358509107</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.6200261415066</v>
+        <v>380.6192620936323</v>
       </c>
       <c r="C17" t="n">
-        <v>376.5244030535246</v>
+        <v>380.5236390056503</v>
       </c>
       <c r="D17" t="n">
-        <v>370.920348881532</v>
+        <v>374.9195848336578</v>
       </c>
       <c r="E17" t="n">
-        <v>380.6978716019343</v>
+        <v>384.69710755406</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995121</v>
+        <v>391.320402151637</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397581</v>
+        <v>379.1412954918839</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722212</v>
+        <v>282.2997066243469</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975957</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4293227275022</v>
+        <v>108.4285586796279</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862718</v>
+        <v>194.4847134383975</v>
       </c>
       <c r="U17" t="n">
-        <v>224.990945096747</v>
+        <v>228.9901810488727</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905461</v>
+        <v>320.8394733426719</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298451</v>
+        <v>354.4229920819708</v>
       </c>
       <c r="X17" t="n">
-        <v>367.138022126399</v>
+        <v>371.1372580785247</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950528</v>
+        <v>371.4276005471785</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.323767603766</v>
+        <v>160.3230035558917</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>54.08419560383766</v>
       </c>
       <c r="D19" t="n">
-        <v>96.30873100144034</v>
+        <v>132.3999924561068</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>133.8020012061515</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>140.0781813894997</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>122.6116748683856</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>89.68287966250483</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501635</v>
+        <v>58.92028536714208</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125508</v>
+        <v>159.0281446646766</v>
       </c>
       <c r="T19" t="n">
-        <v>207.6543099067269</v>
+        <v>211.6535458588527</v>
       </c>
       <c r="U19" t="n">
-        <v>250.4712242529991</v>
+        <v>254.4704602051248</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>196.9886358509107</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275031</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T20" t="n">
         <v>190.4854774862718</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>126.2210835114341</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>102.4673613588531</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>54.92104941501635</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>207.6543099067269</v>
@@ -2304,7 +2304,7 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
         <v>192.9893998987849</v>
@@ -2338,7 +2338,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>126.2025099520027</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>207.6543099067269</v>
@@ -2541,10 +2541,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>14.01643745131475</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.4479524106875</v>
+        <v>384.846982467376</v>
       </c>
       <c r="C26" t="n">
-        <v>390.3523293227055</v>
+        <v>384.751359379394</v>
       </c>
       <c r="D26" t="n">
-        <v>384.748275150713</v>
+        <v>379.1473052074015</v>
       </c>
       <c r="E26" t="n">
-        <v>394.5257978711152</v>
+        <v>388.9248279278037</v>
       </c>
       <c r="F26" t="n">
-        <v>193.7301984309786</v>
+        <v>395.5481225253807</v>
       </c>
       <c r="G26" t="n">
-        <v>388.969985808939</v>
+        <v>383.3690158656275</v>
       </c>
       <c r="H26" t="n">
-        <v>292.1283969414021</v>
+        <v>286.5274269980906</v>
       </c>
       <c r="I26" t="n">
-        <v>69.81722959894051</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>118.2572489966831</v>
+        <v>53.46819382096</v>
       </c>
       <c r="T26" t="n">
-        <v>204.3134037554527</v>
+        <v>198.7124338121412</v>
       </c>
       <c r="U26" t="n">
-        <v>238.8188713659279</v>
+        <v>233.2179014226164</v>
       </c>
       <c r="V26" t="n">
-        <v>330.668163659727</v>
+        <v>325.0671937164155</v>
       </c>
       <c r="W26" t="n">
-        <v>364.251682399026</v>
+        <v>358.6507124557145</v>
       </c>
       <c r="X26" t="n">
-        <v>380.9659483955799</v>
+        <v>375.3649784522684</v>
       </c>
       <c r="Y26" t="n">
-        <v>381.2562908642337</v>
+        <v>375.6553209209222</v>
       </c>
     </row>
     <row r="27">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>164.5507239296354</v>
       </c>
       <c r="C28" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>143.6306915232067</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>68.74897568419729</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.8568349817318</v>
+        <v>120.9774410432856</v>
       </c>
       <c r="T28" t="n">
-        <v>221.4822361759078</v>
+        <v>215.8812662325963</v>
       </c>
       <c r="U28" t="n">
-        <v>264.29915052218</v>
+        <v>258.6981805788685</v>
       </c>
       <c r="V28" t="n">
-        <v>255.4758721527162</v>
+        <v>249.8749022094047</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>255.0069824457458</v>
       </c>
       <c r="X28" t="n">
-        <v>220.2894080617564</v>
+        <v>214.6884381184449</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.4836132926785</v>
+        <v>201.2163562246543</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.4479524106875</v>
+        <v>384.846982467376</v>
       </c>
       <c r="C29" t="n">
-        <v>390.3523293227055</v>
+        <v>384.751359379394</v>
       </c>
       <c r="D29" t="n">
-        <v>384.748275150713</v>
+        <v>379.1473052074015</v>
       </c>
       <c r="E29" t="n">
-        <v>187.1069038334014</v>
+        <v>388.9248279278037</v>
       </c>
       <c r="F29" t="n">
-        <v>401.1490924686922</v>
+        <v>395.5481225253807</v>
       </c>
       <c r="G29" t="n">
-        <v>388.969985808939</v>
+        <v>383.3690158656275</v>
       </c>
       <c r="H29" t="n">
-        <v>292.1283969414021</v>
+        <v>286.5274269980906</v>
       </c>
       <c r="I29" t="n">
-        <v>69.81722959894051</v>
+        <v>64.21625965562897</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>118.2572489966831</v>
+        <v>112.6562790533715</v>
       </c>
       <c r="T29" t="n">
-        <v>204.3134037554527</v>
+        <v>198.7124338121412</v>
       </c>
       <c r="U29" t="n">
-        <v>238.8188713659279</v>
+        <v>233.2179014226164</v>
       </c>
       <c r="V29" t="n">
-        <v>330.668163659727</v>
+        <v>201.6628488283752</v>
       </c>
       <c r="W29" t="n">
-        <v>364.251682399026</v>
+        <v>358.6507124557145</v>
       </c>
       <c r="X29" t="n">
-        <v>380.9659483955799</v>
+        <v>375.3649784522684</v>
       </c>
       <c r="Y29" t="n">
-        <v>381.2562908642337</v>
+        <v>375.6553209209222</v>
       </c>
     </row>
     <row r="30">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>164.5507239296354</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>148.1104533134321</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>136.6277128298505</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.74897568419729</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.8568349817318</v>
+        <v>163.2558650384202</v>
       </c>
       <c r="T31" t="n">
-        <v>221.4822361759078</v>
+        <v>215.8812662325963</v>
       </c>
       <c r="U31" t="n">
-        <v>264.29915052218</v>
+        <v>258.6981805788685</v>
       </c>
       <c r="V31" t="n">
-        <v>255.4758721527162</v>
+        <v>249.8749022094047</v>
       </c>
       <c r="W31" t="n">
-        <v>260.6079523890573</v>
+        <v>255.0069824457458</v>
       </c>
       <c r="X31" t="n">
-        <v>190.6898575773619</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>206.8173261679659</v>
+        <v>88.88820420468201</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.4479524106875</v>
+        <v>384.8469824673759</v>
       </c>
       <c r="C32" t="n">
-        <v>390.3523293227055</v>
+        <v>384.751359379394</v>
       </c>
       <c r="D32" t="n">
-        <v>384.748275150713</v>
+        <v>379.1473052074015</v>
       </c>
       <c r="E32" t="n">
-        <v>394.5257978711152</v>
+        <v>388.9248279278037</v>
       </c>
       <c r="F32" t="n">
-        <v>401.1490924686922</v>
+        <v>395.5481225253807</v>
       </c>
       <c r="G32" t="n">
-        <v>251.3683213701659</v>
+        <v>383.3690158656275</v>
       </c>
       <c r="H32" t="n">
-        <v>292.1283969414021</v>
+        <v>286.5274269980906</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>53.46819382095996</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>118.2572489966831</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>204.3134037554527</v>
+        <v>198.7124338121412</v>
       </c>
       <c r="U32" t="n">
-        <v>238.8188713659279</v>
+        <v>233.2179014226164</v>
       </c>
       <c r="V32" t="n">
-        <v>330.668163659727</v>
+        <v>325.0671937164155</v>
       </c>
       <c r="W32" t="n">
-        <v>364.251682399026</v>
+        <v>358.6507124557145</v>
       </c>
       <c r="X32" t="n">
-        <v>380.9659483955799</v>
+        <v>375.3649784522684</v>
       </c>
       <c r="Y32" t="n">
-        <v>381.2562908642337</v>
+        <v>375.6553209209222</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>170.1516938729469</v>
+        <v>122.2722999345006</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.74897568419729</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.8568349817318</v>
+        <v>163.2558650384202</v>
       </c>
       <c r="T34" t="n">
-        <v>221.4822361759078</v>
+        <v>215.8812662325963</v>
       </c>
       <c r="U34" t="n">
-        <v>264.29915052218</v>
+        <v>258.6981805788685</v>
       </c>
       <c r="V34" t="n">
-        <v>255.4758721527162</v>
+        <v>249.8749022094047</v>
       </c>
       <c r="W34" t="n">
-        <v>260.6079523890573</v>
+        <v>255.0069824457458</v>
       </c>
       <c r="X34" t="n">
-        <v>220.2894080617564</v>
+        <v>214.6884381184449</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.066081810624502</v>
+        <v>201.2163562246543</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.4479524106875</v>
+        <v>388.8462184195017</v>
       </c>
       <c r="C35" t="n">
-        <v>390.3523293227055</v>
+        <v>388.7505953315197</v>
       </c>
       <c r="D35" t="n">
-        <v>384.748275150713</v>
+        <v>383.1465411595271</v>
       </c>
       <c r="E35" t="n">
-        <v>394.5257978711152</v>
+        <v>392.9240638799293</v>
       </c>
       <c r="F35" t="n">
-        <v>401.1490924686922</v>
+        <v>399.5473584775065</v>
       </c>
       <c r="G35" t="n">
-        <v>181.5510917712254</v>
+        <v>387.3682518177533</v>
       </c>
       <c r="H35" t="n">
-        <v>292.1283969414021</v>
+        <v>290.5266629502163</v>
       </c>
       <c r="I35" t="n">
-        <v>69.81722959894051</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>118.2572489966831</v>
+        <v>1.4781264433256</v>
       </c>
       <c r="T35" t="n">
-        <v>204.3134037554527</v>
+        <v>202.7116697642669</v>
       </c>
       <c r="U35" t="n">
-        <v>238.8188713659279</v>
+        <v>237.2171373747421</v>
       </c>
       <c r="V35" t="n">
-        <v>330.668163659727</v>
+        <v>329.0664296685412</v>
       </c>
       <c r="W35" t="n">
-        <v>364.251682399026</v>
+        <v>362.6499484078403</v>
       </c>
       <c r="X35" t="n">
-        <v>380.9659483955799</v>
+        <v>379.3642144043941</v>
       </c>
       <c r="Y35" t="n">
-        <v>381.2562908642337</v>
+        <v>379.6545568730479</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>168.5499598817611</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>113.0581532050026</v>
       </c>
       <c r="D37" t="n">
-        <v>142.228682773162</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.74897568419729</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.8568349817318</v>
+        <v>167.255100990546</v>
       </c>
       <c r="T37" t="n">
-        <v>221.4822361759078</v>
+        <v>219.880502184722</v>
       </c>
       <c r="U37" t="n">
-        <v>264.29915052218</v>
+        <v>262.6974165309942</v>
       </c>
       <c r="V37" t="n">
-        <v>255.4758721527162</v>
+        <v>253.8741381615304</v>
       </c>
       <c r="W37" t="n">
-        <v>260.6079523890573</v>
+        <v>259.0062183978715</v>
       </c>
       <c r="X37" t="n">
-        <v>220.2894080617564</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.9890929104094</v>
+        <v>205.2155921767801</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.4479524106875</v>
+        <v>388.8462184195017</v>
       </c>
       <c r="C38" t="n">
-        <v>390.3523293227055</v>
+        <v>388.7505953315197</v>
       </c>
       <c r="D38" t="n">
-        <v>384.748275150713</v>
+        <v>383.1465411595271</v>
       </c>
       <c r="E38" t="n">
-        <v>394.5257978711152</v>
+        <v>392.9240638799293</v>
       </c>
       <c r="F38" t="n">
-        <v>401.1490924686922</v>
+        <v>399.5473584775065</v>
       </c>
       <c r="G38" t="n">
-        <v>388.969985808939</v>
+        <v>387.3682518177533</v>
       </c>
       <c r="H38" t="n">
-        <v>84.70950290368847</v>
+        <v>290.5266629502163</v>
       </c>
       <c r="I38" t="n">
-        <v>69.81722959894051</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>118.2572489966831</v>
+        <v>1.4781264433256</v>
       </c>
       <c r="T38" t="n">
-        <v>204.3134037554527</v>
+        <v>202.7116697642669</v>
       </c>
       <c r="U38" t="n">
-        <v>238.8188713659279</v>
+        <v>237.2171373747421</v>
       </c>
       <c r="V38" t="n">
-        <v>330.668163659727</v>
+        <v>329.0664296685412</v>
       </c>
       <c r="W38" t="n">
-        <v>364.251682399026</v>
+        <v>362.6499484078403</v>
       </c>
       <c r="X38" t="n">
-        <v>380.9659483955799</v>
+        <v>379.3642144043941</v>
       </c>
       <c r="Y38" t="n">
-        <v>381.2562908642337</v>
+        <v>379.6545568730479</v>
       </c>
     </row>
     <row r="39">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>170.1516938729469</v>
+        <v>168.5499598817611</v>
       </c>
       <c r="C40" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>131.1258909698516</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>61.62558012497804</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.74897568419729</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.8568349817318</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.4822361759078</v>
+        <v>219.880502184722</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>262.6974165309942</v>
       </c>
       <c r="V40" t="n">
-        <v>255.4758721527162</v>
+        <v>253.8741381615304</v>
       </c>
       <c r="W40" t="n">
-        <v>260.6079523890573</v>
+        <v>259.0062183978715</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>218.6876740705706</v>
       </c>
       <c r="Y40" t="n">
-        <v>206.8173261679659</v>
+        <v>205.2155921767801</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>402.9401476073396</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>174.1372571702753</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3805,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3903,22 +3903,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>134.9619699484678</v>
       </c>
       <c r="E43" t="n">
-        <v>2.127201442763817</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>373.8316553010462</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -4042,7 +4042,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>393.553766680214</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>43.73227063629162</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>223.4899753452292</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>687.3747545467722</v>
+        <v>484.2909016982387</v>
       </c>
       <c r="C2" t="n">
-        <v>681.2905679004464</v>
+        <v>478.2067150519129</v>
       </c>
       <c r="D2" t="n">
-        <v>680.8670420339109</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E2" t="n">
-        <v>670.5672305912117</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
-        <v>536.8451324196967</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>176.0078249962696</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>176.0078249962696</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>176.0078249962696</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
-        <v>692.8507596625949</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4360,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1831.193789739612</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V2" t="n">
-        <v>1481.356235076093</v>
+        <v>1295.155479193776</v>
       </c>
       <c r="W2" t="n">
-        <v>1097.595934211262</v>
+        <v>1295.155479193776</v>
       </c>
       <c r="X2" t="n">
-        <v>1097.595934211262</v>
+        <v>894.5120813627282</v>
       </c>
       <c r="Y2" t="n">
-        <v>1097.595934211262</v>
+        <v>894.5120813627282</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
         <v>469.7036984844747</v>
@@ -4397,40 +4397,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>704.7239474634683</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M3" t="n">
-        <v>1221.566882129794</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N3" t="n">
-        <v>1221.566882129794</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>588.5395825927103</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="C4" t="n">
-        <v>588.5395825927103</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="D4" t="n">
-        <v>516.9144818452346</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="E4" t="n">
-        <v>356.0036667135541</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="F4" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1145.223475107064</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>862.4253276531883</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V4" t="n">
-        <v>588.5395825927103</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W4" t="n">
-        <v>588.5395825927103</v>
+        <v>780.8810922913383</v>
       </c>
       <c r="X4" t="n">
-        <v>588.5395825927103</v>
+        <v>542.5372301510217</v>
       </c>
       <c r="Y4" t="n">
-        <v>588.5395825927103</v>
+        <v>317.8015315397864</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>484.2909016982387</v>
+        <v>2082.073505856017</v>
       </c>
       <c r="C5" t="n">
-        <v>74.16631101150881</v>
+        <v>2001.236424545407</v>
       </c>
       <c r="D5" t="n">
-        <v>73.74278514497341</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="E5" t="n">
-        <v>63.44297370227418</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4567,52 +4567,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>537.7254774811266</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1054.568412147452</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1380.929167557543</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>997.1688666927112</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>997.1688666927112</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>894.5120813627282</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4646,19 +4646,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>158.3214934345131</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>158.3214934345131</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>675.1644281008383</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767164</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
         <v>1192.007362767164</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>278.4281042659014</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>278.4281042659014</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>278.4281042659014</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>206.3962115190108</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1203.093116471976</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>929.2073714114977</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>929.2073714114977</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>690.8635092711811</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>466.1278106599458</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.3313057386429</v>
+        <v>2082.073505856017</v>
       </c>
       <c r="C8" t="n">
-        <v>882.247119092317</v>
+        <v>2001.236424545407</v>
       </c>
       <c r="D8" t="n">
-        <v>881.8235932257816</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="E8" t="n">
-        <v>467.4833777426783</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
         <v>41.76508562960205</v>
@@ -4804,52 +4804,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>216.5644706858345</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>216.5644706858345</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L8" t="n">
-        <v>216.5644706858345</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
-        <v>216.5644706858345</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N8" t="n">
-        <v>733.4074053521598</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O8" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1089.945929615741</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>894.5120813627283</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y8" t="n">
-        <v>894.5120813627283</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>52.35970185319792</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>508.1659581184966</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1025.008892784822</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784822</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.1714896368677</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>238.0781171985842</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>209.0154767040586</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>209.0154767040586</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>209.0154767040586</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>821.6068946421474</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y10" t="n">
-        <v>596.8711960309121</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2340.613014133291</v>
+        <v>2368.890440057412</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.285334281246</v>
+        <v>1984.523127930492</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208992</v>
+        <v>1605.816476583363</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560573</v>
+        <v>1217.23353966007</v>
       </c>
       <c r="F11" t="n">
-        <v>809.841509348945</v>
+        <v>821.9604061735683</v>
       </c>
       <c r="G11" t="n">
-        <v>430.910136076462</v>
+        <v>438.9894006262109</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388648</v>
+        <v>153.8381818137393</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4556.700720159925</v>
+        <v>4613.255572008168</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941469</v>
+        <v>4416.806366514837</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035665</v>
+        <v>4185.503153334158</v>
       </c>
       <c r="V11" t="n">
-        <v>3816.98692220683</v>
+        <v>3861.422877230449</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176684</v>
+        <v>3503.419854925428</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.177045180321</v>
+        <v>3128.533735654191</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963096</v>
+        <v>2753.354341162091</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>705.4904009953962</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M12" t="n">
-        <v>1548.467481689963</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N12" t="n">
-        <v>1548.467481689963</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O12" t="n">
-        <v>1548.467481689963</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
         <v>2110.173374178493</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>479.5419440130794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>434.4375921661942</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>434.4375921661942</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>434.4375921661942</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.5301994049079</v>
+        <v>132.5709558123035</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362205</v>
+        <v>312.3679922510116</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253558</v>
+        <v>597.5098012475423</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749236</v>
+        <v>912.0185664045057</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478248</v>
+        <v>1218.102057515226</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113797</v>
+        <v>1502.90737655817</v>
       </c>
       <c r="P13" t="n">
-        <v>1761.542230672484</v>
+        <v>1733.827525524253</v>
       </c>
       <c r="Q13" t="n">
-        <v>1856.27421278407</v>
+        <v>1824.600264043234</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1799.658800506603</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.203548008749</v>
+        <v>1639.024310946324</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820136</v>
+        <v>1425.232850482837</v>
       </c>
       <c r="U13" t="n">
-        <v>1181.450483200945</v>
+        <v>1168.191981588771</v>
       </c>
       <c r="V13" t="n">
-        <v>937.361648975152</v>
+        <v>920.0635150881033</v>
       </c>
       <c r="W13" t="n">
-        <v>688.0888953187111</v>
+        <v>666.751129156788</v>
       </c>
       <c r="X13" t="n">
-        <v>479.5419440130794</v>
+        <v>454.1645455762817</v>
       </c>
       <c r="Y13" t="n">
-        <v>479.5419440130794</v>
+        <v>255.1861255248568</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2340.613014133291</v>
+        <v>2368.890440057412</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281246</v>
+        <v>1984.523127930492</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208992</v>
+        <v>1605.816476583363</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.075010560573</v>
+        <v>1217.23353966007</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489459</v>
+        <v>821.9604061735683</v>
       </c>
       <c r="G14" t="n">
-        <v>430.9101360764629</v>
+        <v>438.9894006262109</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388658</v>
+        <v>153.8381818137393</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4556.700720159925</v>
+        <v>4613.255572008168</v>
       </c>
       <c r="T14" t="n">
-        <v>4364.291146941469</v>
+        <v>4416.806366514837</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035665</v>
+        <v>4185.503153334158</v>
       </c>
       <c r="V14" t="n">
-        <v>3816.98692220683</v>
+        <v>3861.422877230449</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176684</v>
+        <v>3503.419854925428</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.177045180321</v>
+        <v>3128.533735654191</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963096</v>
+        <v>2753.354341162091</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>355.6459363114127</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>355.6459363114127</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.623017005979</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N15" t="n">
-        <v>1198.623017005979</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O15" t="n">
-        <v>1198.623017005979</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P15" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>375.9731143336102</v>
+        <v>234.736810205269</v>
       </c>
       <c r="C16" t="n">
-        <v>375.9731143336102</v>
+        <v>234.736810205269</v>
       </c>
       <c r="D16" t="n">
-        <v>375.9731143336102</v>
+        <v>234.736810205269</v>
       </c>
       <c r="E16" t="n">
-        <v>375.9731143336102</v>
+        <v>234.736810205269</v>
       </c>
       <c r="F16" t="n">
-        <v>299.6033771114703</v>
+        <v>234.736810205269</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>136.5301994049079</v>
+        <v>132.5709558123035</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362205</v>
+        <v>312.3679922510116</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253558</v>
+        <v>597.5098012475423</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749236</v>
+        <v>912.0185664045057</v>
       </c>
       <c r="N16" t="n">
-        <v>1237.898275478248</v>
+        <v>1218.102057515226</v>
       </c>
       <c r="O16" t="n">
-        <v>1526.662838113797</v>
+        <v>1502.90737655817</v>
       </c>
       <c r="P16" t="n">
-        <v>1761.542230672484</v>
+        <v>1733.827525524253</v>
       </c>
       <c r="Q16" t="n">
-        <v>1856.27421278407</v>
+        <v>1824.600264043234</v>
       </c>
       <c r="R16" t="n">
-        <v>1800.798405294154</v>
+        <v>1779.209485187016</v>
       </c>
       <c r="S16" t="n">
-        <v>1644.203548008749</v>
+        <v>1618.574995626736</v>
       </c>
       <c r="T16" t="n">
-        <v>1434.451719820136</v>
+        <v>1404.783535163249</v>
       </c>
       <c r="U16" t="n">
-        <v>1181.450483200945</v>
+        <v>1147.742666269183</v>
       </c>
       <c r="V16" t="n">
-        <v>937.361648975152</v>
+        <v>899.6141997685155</v>
       </c>
       <c r="W16" t="n">
-        <v>937.361648975152</v>
+        <v>646.3018138372003</v>
       </c>
       <c r="X16" t="n">
-        <v>728.8146976695202</v>
+        <v>433.715230256694</v>
       </c>
       <c r="Y16" t="n">
-        <v>533.8759098929697</v>
+        <v>234.736810205269</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2340.613014133291</v>
+        <v>2308.295955934295</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281246</v>
+        <v>1923.928643807376</v>
       </c>
       <c r="D17" t="n">
-        <v>1585.618315208992</v>
+        <v>1545.221992460247</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.075010560573</v>
+        <v>1156.639055536954</v>
       </c>
       <c r="F17" t="n">
-        <v>809.841509348945</v>
+        <v>761.3659220504519</v>
       </c>
       <c r="G17" t="n">
-        <v>430.910136076462</v>
+        <v>378.3949165030945</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388648</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4556.700720159925</v>
+        <v>4552.661087885051</v>
       </c>
       <c r="T17" t="n">
-        <v>4364.291146941469</v>
+        <v>4356.21188239172</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035665</v>
+        <v>4124.90866921104</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.98692220683</v>
+        <v>3800.828393107332</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176684</v>
+        <v>3442.825370802311</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.177045180321</v>
+        <v>3067.939251531074</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963096</v>
+        <v>2692.759857038975</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K18" t="n">
-        <v>741.8628115185547</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L18" t="n">
-        <v>1402.950983437843</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M18" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N18" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O18" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>321.6391484537198</v>
+        <v>772.6971574749523</v>
       </c>
       <c r="C19" t="n">
-        <v>321.6391484537198</v>
+        <v>718.0666568650153</v>
       </c>
       <c r="D19" t="n">
-        <v>224.3576019876185</v>
+        <v>584.3292907477356</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>449.1757541758654</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>449.1757541758654</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>307.6826416612192</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>183.8324650264863</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>136.5301994049079</v>
+        <v>132.5709558123035</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362205</v>
+        <v>312.3679922510116</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253558</v>
+        <v>597.5098012475423</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749236</v>
+        <v>912.0185664045057</v>
       </c>
       <c r="N19" t="n">
-        <v>1237.898275478248</v>
+        <v>1218.102057515226</v>
       </c>
       <c r="O19" t="n">
-        <v>1526.662838113797</v>
+        <v>1502.90737655817</v>
       </c>
       <c r="P19" t="n">
-        <v>1761.542230672484</v>
+        <v>1733.827525524253</v>
       </c>
       <c r="Q19" t="n">
-        <v>1856.27421278407</v>
+        <v>1824.600264043234</v>
       </c>
       <c r="R19" t="n">
-        <v>1800.798405294154</v>
+        <v>1765.084824278444</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.203548008749</v>
+        <v>1604.450334718164</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.451719820136</v>
+        <v>1390.658874254677</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.450483200945</v>
+        <v>1133.618005360611</v>
       </c>
       <c r="V19" t="n">
-        <v>937.361648975152</v>
+        <v>1133.618005360611</v>
       </c>
       <c r="W19" t="n">
-        <v>688.0888953187111</v>
+        <v>1133.618005360611</v>
       </c>
       <c r="X19" t="n">
-        <v>479.5419440130794</v>
+        <v>1133.618005360611</v>
       </c>
       <c r="Y19" t="n">
-        <v>479.5419440130794</v>
+        <v>934.6395853091864</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>809.841509348945</v>
       </c>
       <c r="G20" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5788,7 +5788,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W20" t="n">
         <v>3463.023532176683</v>
@@ -5834,25 +5834,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>213.3947382540484</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.371818948615</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.371818948615</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O21" t="n">
-        <v>1760.328909494509</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P21" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>365.6540635912171</v>
+        <v>283.2952179625745</v>
       </c>
       <c r="C22" t="n">
-        <v>224.3576019876185</v>
+        <v>283.2952179625745</v>
       </c>
       <c r="D22" t="n">
-        <v>224.3576019876185</v>
+        <v>283.2952179625745</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>283.2952179625745</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>283.2952179625745</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>283.2952179625745</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5937,25 +5937,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.203548008749</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820136</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.450483200945</v>
+        <v>1338.04534048635</v>
       </c>
       <c r="V22" t="n">
-        <v>937.361648975152</v>
+        <v>1093.956506260557</v>
       </c>
       <c r="W22" t="n">
-        <v>688.0888953187111</v>
+        <v>844.6837526041163</v>
       </c>
       <c r="X22" t="n">
-        <v>688.0888953187111</v>
+        <v>636.1368012984846</v>
       </c>
       <c r="Y22" t="n">
-        <v>493.1501075421606</v>
+        <v>441.1980135219341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489456</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764625</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -6019,10 +6019,10 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V23" t="n">
         <v>3816.98692220683</v>
@@ -6034,7 +6034,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="24">
@@ -6077,19 +6077,19 @@
         <v>754.331869609911</v>
       </c>
       <c r="M24" t="n">
-        <v>844.5103911440685</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N24" t="n">
-        <v>844.5103911440685</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O24" t="n">
-        <v>1548.467481689963</v>
+        <v>1458.288960155805</v>
       </c>
       <c r="P24" t="n">
-        <v>2110.173374178493</v>
+        <v>2019.994852644335</v>
       </c>
       <c r="Q24" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>321.0892943552104</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="C25" t="n">
-        <v>179.7928327516118</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="D25" t="n">
-        <v>179.7928327516118</v>
+        <v>561.9148749459949</v>
       </c>
       <c r="E25" t="n">
-        <v>179.7928327516118</v>
+        <v>434.4375921661942</v>
       </c>
       <c r="F25" t="n">
-        <v>179.7928327516118</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G25" t="n">
-        <v>179.7928327516118</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H25" t="n">
         <v>179.7928327516118</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820136</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200945</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V25" t="n">
-        <v>937.361648975152</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W25" t="n">
-        <v>688.0888953187111</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X25" t="n">
-        <v>673.9308776911205</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="Y25" t="n">
-        <v>478.99208991457</v>
+        <v>691.6126087884001</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2228.872195796475</v>
+        <v>2333.918503653954</v>
       </c>
       <c r="C26" t="n">
-        <v>1834.576913652328</v>
+        <v>1945.280766907092</v>
       </c>
       <c r="D26" t="n">
-        <v>1445.942292287972</v>
+        <v>1562.30369094002</v>
       </c>
       <c r="E26" t="n">
-        <v>1047.431385347451</v>
+        <v>1169.450329396783</v>
       </c>
       <c r="F26" t="n">
-        <v>851.7443162252508</v>
+        <v>769.9067712903382</v>
       </c>
       <c r="G26" t="n">
-        <v>458.8453406606659</v>
+        <v>382.6653411230376</v>
       </c>
       <c r="H26" t="n">
-        <v>163.7661518309667</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4542.733117867823</v>
+        <v>4608.176607944311</v>
       </c>
       <c r="T26" t="n">
-        <v>4336.355942357265</v>
+        <v>4407.456977831038</v>
       </c>
       <c r="U26" t="n">
-        <v>4095.124759159358</v>
+        <v>4171.883340030416</v>
       </c>
       <c r="V26" t="n">
-        <v>3761.116513038422</v>
+        <v>3843.532639306763</v>
       </c>
       <c r="W26" t="n">
-        <v>3393.185520716173</v>
+        <v>3481.259192381799</v>
       </c>
       <c r="X26" t="n">
-        <v>3008.371431427709</v>
+        <v>3102.102648490619</v>
       </c>
       <c r="Y26" t="n">
-        <v>2623.264066918382</v>
+        <v>2722.652829378576</v>
       </c>
     </row>
     <row r="27">
@@ -6314,19 +6314,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N27" t="n">
-        <v>936.2207783851894</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O27" t="n">
-        <v>1640.177868931084</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>393.589268175421</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>238.3252042797204</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>238.3252042797204</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
         <v>93.2436976906228</v>
@@ -6384,52 +6384,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>122.8405523984188</v>
+        <v>128.3855126422972</v>
       </c>
       <c r="K28" t="n">
-        <v>292.9071854232423</v>
+        <v>303.9971059109991</v>
       </c>
       <c r="L28" t="n">
-        <v>568.3185910058883</v>
+        <v>584.9534717375236</v>
       </c>
       <c r="M28" t="n">
-        <v>873.0969527489671</v>
+        <v>895.2767937244807</v>
       </c>
       <c r="N28" t="n">
-        <v>1169.450040445803</v>
+        <v>1197.174841665195</v>
       </c>
       <c r="O28" t="n">
-        <v>1444.524956074863</v>
+        <v>1477.794717538133</v>
       </c>
       <c r="P28" t="n">
-        <v>1665.71470162706</v>
+        <v>1704.529423334209</v>
       </c>
       <c r="Q28" t="n">
-        <v>1746.757036732157</v>
+        <v>1791.116718683184</v>
       </c>
       <c r="R28" t="n">
-        <v>1677.313626950139</v>
+        <v>1791.116718683184</v>
       </c>
       <c r="S28" t="n">
-        <v>1506.751167372632</v>
+        <v>1668.917283285926</v>
       </c>
       <c r="T28" t="n">
-        <v>1283.031736891917</v>
+        <v>1450.855398202495</v>
       </c>
       <c r="U28" t="n">
-        <v>1016.062897980624</v>
+        <v>1189.544104688486</v>
       </c>
       <c r="V28" t="n">
-        <v>758.006461462729</v>
+        <v>937.1452135678757</v>
       </c>
       <c r="W28" t="n">
-        <v>758.006461462729</v>
+        <v>679.5624030166173</v>
       </c>
       <c r="X28" t="n">
-        <v>535.4919078649953</v>
+        <v>462.7053948161679</v>
       </c>
       <c r="Y28" t="n">
-        <v>393.589268175421</v>
+        <v>259.4565501447999</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2228.872195796475</v>
+        <v>2398.783412397014</v>
       </c>
       <c r="C29" t="n">
-        <v>1834.576913652328</v>
+        <v>2010.145675650151</v>
       </c>
       <c r="D29" t="n">
-        <v>1445.942292287972</v>
+        <v>1627.168599683079</v>
       </c>
       <c r="E29" t="n">
-        <v>1256.94541972898</v>
+        <v>1234.315238139843</v>
       </c>
       <c r="F29" t="n">
-        <v>851.7443162252508</v>
+        <v>834.7716800333977</v>
       </c>
       <c r="G29" t="n">
-        <v>458.8453406606659</v>
+        <v>447.5302498660972</v>
       </c>
       <c r="H29" t="n">
-        <v>163.7661518309667</v>
+        <v>158.1086064336824</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4542.733117867823</v>
+        <v>4548.390663265108</v>
       </c>
       <c r="T29" t="n">
-        <v>4336.355942357265</v>
+        <v>4347.671033151834</v>
       </c>
       <c r="U29" t="n">
-        <v>4095.124759159358</v>
+        <v>4112.097395351212</v>
       </c>
       <c r="V29" t="n">
-        <v>3761.116513038422</v>
+        <v>3908.397548049823</v>
       </c>
       <c r="W29" t="n">
-        <v>3393.185520716173</v>
+        <v>3546.124101124859</v>
       </c>
       <c r="X29" t="n">
-        <v>3008.371431427709</v>
+        <v>3166.967557233679</v>
       </c>
       <c r="Y29" t="n">
-        <v>2623.264066918382</v>
+        <v>2787.517738121636</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>324.9649248943615</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>324.9649248943615</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>324.9649248943615</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1198.623017005979</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O30" t="n">
-        <v>1198.623017005979</v>
+        <v>1640.177868931084</v>
       </c>
       <c r="P30" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.2436976906228</v>
+        <v>380.8580069262617</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>231.2514884278455</v>
       </c>
       <c r="D31" t="n">
         <v>93.2436976906228</v>
@@ -6621,52 +6621,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>122.8405523984188</v>
+        <v>128.3855126422972</v>
       </c>
       <c r="K31" t="n">
-        <v>292.9071854232423</v>
+        <v>303.9971059109991</v>
       </c>
       <c r="L31" t="n">
-        <v>568.3185910058883</v>
+        <v>584.9534717375236</v>
       </c>
       <c r="M31" t="n">
-        <v>873.0969527489671</v>
+        <v>895.2767937244807</v>
       </c>
       <c r="N31" t="n">
-        <v>1169.450040445803</v>
+        <v>1197.174841665195</v>
       </c>
       <c r="O31" t="n">
-        <v>1444.524956074863</v>
+        <v>1477.794717538133</v>
       </c>
       <c r="P31" t="n">
-        <v>1665.71470162706</v>
+        <v>1704.529423334209</v>
       </c>
       <c r="Q31" t="n">
-        <v>1746.757036732157</v>
+        <v>1791.116718683184</v>
       </c>
       <c r="R31" t="n">
-        <v>1677.313626950139</v>
+        <v>1791.116718683184</v>
       </c>
       <c r="S31" t="n">
-        <v>1506.751167372632</v>
+        <v>1626.211804502962</v>
       </c>
       <c r="T31" t="n">
-        <v>1283.031736891917</v>
+        <v>1408.149919419531</v>
       </c>
       <c r="U31" t="n">
-        <v>1016.062897980624</v>
+        <v>1146.838625905522</v>
       </c>
       <c r="V31" t="n">
-        <v>758.006461462729</v>
+        <v>894.4397347849114</v>
       </c>
       <c r="W31" t="n">
-        <v>494.7661055141863</v>
+        <v>636.856924233653</v>
       </c>
       <c r="X31" t="n">
-        <v>302.1500877592752</v>
+        <v>636.856924233653</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.2436976906228</v>
+        <v>547.0708593804388</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2228.872195796475</v>
+        <v>2387.926780240783</v>
       </c>
       <c r="C32" t="n">
-        <v>1834.576913652328</v>
+        <v>1999.28904349392</v>
       </c>
       <c r="D32" t="n">
-        <v>1445.942292287972</v>
+        <v>1616.311967526848</v>
       </c>
       <c r="E32" t="n">
-        <v>1047.431385347451</v>
+        <v>1223.458605983612</v>
       </c>
       <c r="F32" t="n">
-        <v>642.2302818437219</v>
+        <v>823.9150478771663</v>
       </c>
       <c r="G32" t="n">
-        <v>388.322886520322</v>
+        <v>436.6736177098658</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>147.251974277451</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4542.733117867823</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4336.355942357265</v>
+        <v>4461.465254417866</v>
       </c>
       <c r="U32" t="n">
-        <v>4095.124759159358</v>
+        <v>4225.891616617244</v>
       </c>
       <c r="V32" t="n">
-        <v>3761.116513038422</v>
+        <v>3897.540915893592</v>
       </c>
       <c r="W32" t="n">
-        <v>3393.185520716173</v>
+        <v>3535.267468968628</v>
       </c>
       <c r="X32" t="n">
-        <v>3008.371431427709</v>
+        <v>3156.110925077448</v>
       </c>
       <c r="Y32" t="n">
-        <v>2623.264066918382</v>
+        <v>2776.661105965405</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L33" t="n">
-        <v>917.3518287999427</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6858,52 +6858,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>122.8405523984188</v>
+        <v>128.3855126422972</v>
       </c>
       <c r="K34" t="n">
-        <v>292.9071854232423</v>
+        <v>303.9971059109991</v>
       </c>
       <c r="L34" t="n">
-        <v>568.3185910058883</v>
+        <v>584.9534717375236</v>
       </c>
       <c r="M34" t="n">
-        <v>873.0969527489671</v>
+        <v>895.2767937244807</v>
       </c>
       <c r="N34" t="n">
-        <v>1169.450040445803</v>
+        <v>1197.174841665195</v>
       </c>
       <c r="O34" t="n">
-        <v>1444.524956074863</v>
+        <v>1477.794717538133</v>
       </c>
       <c r="P34" t="n">
-        <v>1665.71470162706</v>
+        <v>1704.529423334209</v>
       </c>
       <c r="Q34" t="n">
-        <v>1746.757036732157</v>
+        <v>1791.116718683184</v>
       </c>
       <c r="R34" t="n">
-        <v>1677.313626950139</v>
+        <v>1791.116718683184</v>
       </c>
       <c r="S34" t="n">
-        <v>1506.751167372632</v>
+        <v>1626.211804502962</v>
       </c>
       <c r="T34" t="n">
-        <v>1283.031736891917</v>
+        <v>1408.149919419531</v>
       </c>
       <c r="U34" t="n">
-        <v>1016.062897980624</v>
+        <v>1146.838625905522</v>
       </c>
       <c r="V34" t="n">
-        <v>758.006461462729</v>
+        <v>894.4397347849114</v>
       </c>
       <c r="W34" t="n">
-        <v>494.7661055141863</v>
+        <v>636.856924233653</v>
       </c>
       <c r="X34" t="n">
-        <v>272.2515519164525</v>
+        <v>419.9999160332036</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.1140955420843</v>
+        <v>216.7510713618356</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2228.872195796475</v>
+        <v>2358.156297303201</v>
       </c>
       <c r="C35" t="n">
-        <v>1834.576913652328</v>
+        <v>1965.478928281464</v>
       </c>
       <c r="D35" t="n">
-        <v>1445.942292287972</v>
+        <v>1578.462220039517</v>
       </c>
       <c r="E35" t="n">
-        <v>1047.431385347451</v>
+        <v>1181.569226221407</v>
       </c>
       <c r="F35" t="n">
-        <v>642.2302818437219</v>
+        <v>777.986035840087</v>
       </c>
       <c r="G35" t="n">
-        <v>458.8453406606659</v>
+        <v>386.704973397912</v>
       </c>
       <c r="H35" t="n">
-        <v>163.7661518309667</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4542.733117867823</v>
+        <v>4660.691827517679</v>
       </c>
       <c r="T35" t="n">
-        <v>4336.355942357265</v>
+        <v>4455.932565129531</v>
       </c>
       <c r="U35" t="n">
-        <v>4095.124759159358</v>
+        <v>4216.319295054034</v>
       </c>
       <c r="V35" t="n">
-        <v>3761.116513038422</v>
+        <v>3883.928962055508</v>
       </c>
       <c r="W35" t="n">
-        <v>3393.185520716173</v>
+        <v>3517.615882855669</v>
       </c>
       <c r="X35" t="n">
-        <v>3008.371431427709</v>
+        <v>3134.419706689614</v>
       </c>
       <c r="Y35" t="n">
-        <v>2623.264066918382</v>
+        <v>2750.930255302697</v>
       </c>
     </row>
     <row r="36">
@@ -7022,22 +7022,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>494.6659264600851</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>494.6659264600851</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N36" t="n">
-        <v>494.6659264600851</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O36" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>236.9090338251299</v>
+        <v>207.4438524431507</v>
       </c>
       <c r="C37" t="n">
-        <v>236.9090338251299</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
         <v>93.2436976906228</v>
@@ -7095,52 +7095,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>122.8405523984188</v>
+        <v>124.4262690496927</v>
       </c>
       <c r="K37" t="n">
-        <v>292.9071854232423</v>
+        <v>296.0786187257901</v>
       </c>
       <c r="L37" t="n">
-        <v>568.3185910058883</v>
+        <v>573.0757409597102</v>
       </c>
       <c r="M37" t="n">
-        <v>873.0969527489671</v>
+        <v>879.4398193540628</v>
       </c>
       <c r="N37" t="n">
-        <v>1169.450040445803</v>
+        <v>1177.378623702172</v>
       </c>
       <c r="O37" t="n">
-        <v>1444.524956074863</v>
+        <v>1454.039255982506</v>
       </c>
       <c r="P37" t="n">
-        <v>1665.71470162706</v>
+        <v>1676.814718185978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1746.757036732157</v>
+        <v>1759.442769942348</v>
       </c>
       <c r="R37" t="n">
-        <v>1677.313626950139</v>
+        <v>1759.442769942348</v>
       </c>
       <c r="S37" t="n">
-        <v>1506.751167372632</v>
+        <v>1590.498223487251</v>
       </c>
       <c r="T37" t="n">
-        <v>1283.031736891917</v>
+        <v>1368.396706128946</v>
       </c>
       <c r="U37" t="n">
-        <v>1016.062897980624</v>
+        <v>1103.045780340063</v>
       </c>
       <c r="V37" t="n">
-        <v>758.006461462729</v>
+        <v>846.6072569445777</v>
       </c>
       <c r="W37" t="n">
-        <v>494.7661055141863</v>
+        <v>584.9848141184448</v>
       </c>
       <c r="X37" t="n">
-        <v>272.2515519164525</v>
+        <v>584.9848141184448</v>
       </c>
       <c r="Y37" t="n">
-        <v>236.9090338251299</v>
+        <v>377.6963371722023</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2228.872195796475</v>
+        <v>2358.156297303201</v>
       </c>
       <c r="C38" t="n">
-        <v>1834.576913652328</v>
+        <v>1965.478928281464</v>
       </c>
       <c r="D38" t="n">
-        <v>1445.942292287972</v>
+        <v>1578.462220039517</v>
       </c>
       <c r="E38" t="n">
-        <v>1047.431385347451</v>
+        <v>1181.569226221407</v>
       </c>
       <c r="F38" t="n">
-        <v>642.2302818437219</v>
+        <v>777.986035840087</v>
       </c>
       <c r="G38" t="n">
-        <v>249.3313062791369</v>
+        <v>386.704973397912</v>
       </c>
       <c r="H38" t="n">
-        <v>163.7661518309667</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4542.733117867823</v>
+        <v>4660.691827517679</v>
       </c>
       <c r="T38" t="n">
-        <v>4336.355942357265</v>
+        <v>4455.932565129531</v>
       </c>
       <c r="U38" t="n">
-        <v>4095.124759159358</v>
+        <v>4216.319295054034</v>
       </c>
       <c r="V38" t="n">
-        <v>3761.116513038422</v>
+        <v>3883.928962055508</v>
       </c>
       <c r="W38" t="n">
-        <v>3393.185520716173</v>
+        <v>3517.615882855669</v>
       </c>
       <c r="X38" t="n">
-        <v>3008.371431427709</v>
+        <v>3134.419706689614</v>
       </c>
       <c r="Y38" t="n">
-        <v>2623.264066918382</v>
+        <v>2750.930255302697</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>355.6459363114127</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.623017005979</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N39" t="n">
-        <v>1198.623017005979</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O39" t="n">
-        <v>1198.623017005979</v>
+        <v>1458.288960155805</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.328909494509</v>
+        <v>2019.994852644335</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>380.9581565053654</v>
+        <v>155.4917584229239</v>
       </c>
       <c r="C40" t="n">
-        <v>225.6940926096648</v>
+        <v>155.4917584229239</v>
       </c>
       <c r="D40" t="n">
-        <v>225.6940926096648</v>
+        <v>155.4917584229239</v>
       </c>
       <c r="E40" t="n">
-        <v>225.6940926096648</v>
+        <v>155.4917584229239</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>155.4917584229239</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>155.4917584229239</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>155.4917584229239</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>122.8405523984188</v>
+        <v>124.4262690496927</v>
       </c>
       <c r="K40" t="n">
-        <v>292.9071854232423</v>
+        <v>296.0786187257901</v>
       </c>
       <c r="L40" t="n">
-        <v>568.3185910058883</v>
+        <v>573.0757409597102</v>
       </c>
       <c r="M40" t="n">
-        <v>873.0969527489671</v>
+        <v>879.4398193540628</v>
       </c>
       <c r="N40" t="n">
-        <v>1169.450040445803</v>
+        <v>1177.378623702172</v>
       </c>
       <c r="O40" t="n">
-        <v>1444.524956074863</v>
+        <v>1454.039255982506</v>
       </c>
       <c r="P40" t="n">
-        <v>1665.71470162706</v>
+        <v>1676.814718185978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1746.757036732157</v>
+        <v>1759.442769942348</v>
       </c>
       <c r="R40" t="n">
-        <v>1677.313626950139</v>
+        <v>1759.442769942348</v>
       </c>
       <c r="S40" t="n">
-        <v>1506.751167372632</v>
+        <v>1759.442769942348</v>
       </c>
       <c r="T40" t="n">
-        <v>1283.031736891917</v>
+        <v>1537.341252584043</v>
       </c>
       <c r="U40" t="n">
-        <v>1283.031736891917</v>
+        <v>1271.99032679516</v>
       </c>
       <c r="V40" t="n">
-        <v>1024.975300374022</v>
+        <v>1015.551803399675</v>
       </c>
       <c r="W40" t="n">
-        <v>761.7349444254793</v>
+        <v>753.9293605735418</v>
       </c>
       <c r="X40" t="n">
-        <v>761.7349444254793</v>
+        <v>533.032720098218</v>
       </c>
       <c r="Y40" t="n">
-        <v>552.8285543568269</v>
+        <v>325.7442431519755</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976085</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7414,7 +7414,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4351.007589961326</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4093.947098220835</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V41" t="n">
-        <v>3744.109543557316</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W41" t="n">
-        <v>3360.349242692484</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X41" t="n">
-        <v>3360.349242692484</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y41" t="n">
-        <v>2959.412569640574</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="L42" t="n">
-        <v>182.7137268369972</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="M42" t="n">
-        <v>182.7137268369972</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N42" t="n">
-        <v>1056.371818948615</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O42" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4063.35771140577</v>
+        <v>726.204233320165</v>
       </c>
       <c r="C43" t="n">
-        <v>3892.264338967486</v>
+        <v>555.1108608818815</v>
       </c>
       <c r="D43" t="n">
-        <v>3732.769694290396</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E43" t="n">
-        <v>3730.621005964372</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F43" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4475.79311641105</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>4475.79311641105</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U43" t="n">
-        <v>4475.79311641105</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V43" t="n">
-        <v>4475.79311641105</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="W43" t="n">
-        <v>4475.79311641105</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="X43" t="n">
-        <v>4475.79311641105</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="Y43" t="n">
-        <v>4251.057417799814</v>
+        <v>913.9039397142094</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2134.851174492981</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>1724.726583806251</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7727,16 +7727,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="M45" t="n">
-        <v>93.2436976906228</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N45" t="n">
         <v>524.2254458227151</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3416.38242488042</v>
+        <v>137.4177084343517</v>
       </c>
       <c r="C46" t="n">
-        <v>3416.38242488042</v>
+        <v>137.4177084343517</v>
       </c>
       <c r="D46" t="n">
-        <v>3416.38242488042</v>
+        <v>137.4177084343517</v>
       </c>
       <c r="E46" t="n">
-        <v>3416.38242488042</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>3416.38242488042</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>4576.912166206539</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T46" t="n">
-        <v>4337.363427183242</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U46" t="n">
-        <v>4054.565279729366</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V46" t="n">
-        <v>4054.565279729366</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W46" t="n">
-        <v>4054.565279729366</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="X46" t="n">
-        <v>3828.8178298857</v>
+        <v>362.153407045587</v>
       </c>
       <c r="Y46" t="n">
-        <v>3604.082131274464</v>
+        <v>137.4177084343517</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>224.7351163062146</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8057,13 +8057,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>265.3595799407153</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
@@ -8072,7 +8072,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>173.5595280421012</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>249.8886267436438</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
@@ -8467,7 +8467,7 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>228.7885022587807</v>
       </c>
       <c r="P8" t="n">
         <v>615.7129336509097</v>
@@ -8476,7 +8476,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>62.07087134908675</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
@@ -8546,13 +8546,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8771,13 +8771,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>479.785075065536</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
@@ -8789,7 +8789,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>126.1180868837635</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P17" t="n">
         <v>628.1510783507341</v>
@@ -9242,7 +9242,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
@@ -9251,7 +9251,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>771.9303349915991</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
@@ -9260,13 +9260,13 @@
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>177.4792112486527</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>429.1692081600164</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>148.6536994294856</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
@@ -9737,10 +9737,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>177.6401345621998</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>529.0025695961465</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,28 +10193,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>289.8876284449575</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>558.8606699624394</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,16 +10427,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>339.7023577301357</v>
       </c>
       <c r="L33" t="n">
-        <v>428.1366196128907</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
@@ -10445,13 +10445,13 @@
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N35" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O35" t="n">
         <v>743.321953824879</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,13 +10670,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>461.5915225678817</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
@@ -10688,7 +10688,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O38" t="n">
         <v>743.321953824879</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>126.4068279099972</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>177.6401345621998</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>296.4004197234629</v>
       </c>
       <c r="L42" t="n">
-        <v>146.4882906253687</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11375,10 +11375,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>296.4004197234629</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
@@ -11387,7 +11387,7 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>488.5284925170755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>768.8192472281761</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>59.98853928188611</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>95.23018865914636</v>
+        <v>143.8827329396884</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>132.3999924561068</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>133.8020012061515</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>137.4851088563024</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>140.0781813894997</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>122.6116748683856</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.68287966250483</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>34.22823646587798</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>59.98853928188611</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>160.3230035558917</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>143.8827329396884</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>132.3999924561068</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>133.8020012061515</v>
       </c>
       <c r="F16" t="n">
-        <v>57.8798330542582</v>
+        <v>137.4851088563024</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>122.6116748683856</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>89.68287966250483</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>13.98341429948621</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>59.9885392818853</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>89.79853733585074</v>
       </c>
       <c r="D19" t="n">
-        <v>32.09202550254075</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>137.4851088563024</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>245.647181835661</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>250.7792620720021</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>210.4607177447012</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.10268409233186</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
         <v>133.4858729041767</v>
@@ -24144,10 +24144,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>16.14507755740685</v>
       </c>
       <c r="I22" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>3.600255302023044</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>192.4450443412607</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="26">
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>207.4188940377137</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>64.21625965562897</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>59.18808523241155</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.1516938729469</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>148.1104533134321</v>
       </c>
       <c r="D28" t="n">
-        <v>142.228682773162</v>
+        <v>136.6277128298505</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>138.0297215798951</v>
       </c>
       <c r="F28" t="n">
-        <v>147.3137991733576</v>
+        <v>141.7128292300461</v>
       </c>
       <c r="G28" t="n">
-        <v>149.9068717065549</v>
+        <v>144.3059017632434</v>
       </c>
       <c r="H28" t="n">
-        <v>132.4403651854408</v>
+        <v>126.8393952421293</v>
       </c>
       <c r="I28" t="n">
-        <v>99.51156997956005</v>
+        <v>93.91060003624851</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>63.14800574088575</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>42.27842399513464</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>260.6079523890573</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.33371287528738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>207.4188940377138</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>123.4043448880403</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170.1516938729469</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>142.228682773162</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>143.6306915232067</v>
+        <v>138.0297215798951</v>
       </c>
       <c r="F31" t="n">
-        <v>147.3137991733576</v>
+        <v>141.7128292300461</v>
       </c>
       <c r="G31" t="n">
-        <v>149.9068717065549</v>
+        <v>144.3059017632434</v>
       </c>
       <c r="H31" t="n">
-        <v>132.4403651854408</v>
+        <v>126.8393952421293</v>
       </c>
       <c r="I31" t="n">
-        <v>99.51156997956005</v>
+        <v>93.91060003624851</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>63.14800574088575</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>29.59955048439443</v>
+        <v>214.6884381184449</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>112.3281520199723</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>137.6016644387732</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>69.81722959894051</v>
+        <v>10.74806583466901</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>112.6562790533715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>42.27842399513473</v>
       </c>
       <c r="C34" t="n">
-        <v>153.7114232567436</v>
+        <v>148.1104533134321</v>
       </c>
       <c r="D34" t="n">
-        <v>142.228682773162</v>
+        <v>136.6277128298505</v>
       </c>
       <c r="E34" t="n">
-        <v>143.6306915232067</v>
+        <v>138.0297215798951</v>
       </c>
       <c r="F34" t="n">
-        <v>147.3137991733576</v>
+        <v>141.7128292300461</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9068717065549</v>
+        <v>144.3059017632434</v>
       </c>
       <c r="H34" t="n">
-        <v>132.4403651854408</v>
+        <v>126.8393952421293</v>
       </c>
       <c r="I34" t="n">
-        <v>99.51156997956005</v>
+        <v>93.91060003624851</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>63.14800574088575</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>199.7512443573414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4188940377137</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>68.2154956077547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>115.1773885621717</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>170.1516938729469</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>153.7114232567436</v>
+        <v>39.05153606055521</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>140.6269487819762</v>
       </c>
       <c r="E37" t="n">
-        <v>143.6306915232067</v>
+        <v>142.0289575320209</v>
       </c>
       <c r="F37" t="n">
-        <v>147.3137991733576</v>
+        <v>145.7120651821718</v>
       </c>
       <c r="G37" t="n">
-        <v>149.9068717065549</v>
+        <v>148.3051377153691</v>
       </c>
       <c r="H37" t="n">
-        <v>132.4403651854408</v>
+        <v>130.838631194255</v>
       </c>
       <c r="I37" t="n">
-        <v>99.51156997956005</v>
+        <v>97.90983598837424</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.14724169301148</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>218.6876740705706</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.8282332575565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4188940377136</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>68.2154956077547</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>115.1773885621717</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>152.1096892655578</v>
       </c>
       <c r="D40" t="n">
-        <v>142.228682773162</v>
+        <v>140.6269487819762</v>
       </c>
       <c r="E40" t="n">
-        <v>143.6306915232067</v>
+        <v>142.0289575320209</v>
       </c>
       <c r="F40" t="n">
-        <v>16.18790820350603</v>
+        <v>145.7120651821718</v>
       </c>
       <c r="G40" t="n">
-        <v>149.9068717065549</v>
+        <v>148.3051377153691</v>
       </c>
       <c r="H40" t="n">
-        <v>132.4403651854408</v>
+        <v>130.838631194255</v>
       </c>
       <c r="I40" t="n">
-        <v>99.51156997956005</v>
+        <v>36.2842558633962</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.14724169301148</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>167.255100990546</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>264.29915052218</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>220.2894080617564</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>3.083197172522944</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>45.84716204233442</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>22.93772828185132</v>
       </c>
       <c r="E43" t="n">
-        <v>157.1745055375999</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25854,7 +25854,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>32.28731256679839</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>3.083197172522944</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26031,19 +26031,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>115.5694363440721</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>12.47044817368422</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>519845.4477023255</v>
+        <v>514194.7538186961</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>519845.4477023255</v>
+        <v>514194.7538186961</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>519845.4477023255</v>
+        <v>514194.7538186961</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>519845.4477023256</v>
+        <v>519845.4477023255</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>500307.3710977167</v>
+        <v>508221.2243886784</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>500307.3710977167</v>
+        <v>508221.2243886786</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>500307.3710977167</v>
+        <v>508221.2243886784</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>500307.3710977167</v>
+        <v>502570.5305050492</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>500307.3710977167</v>
+        <v>502570.5305050491</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>478165.113863069</v>
+        <v>478165.1138630692</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>478165.1138630693</v>
+        <v>478165.1138630692</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>618953.0935233365</v>
+      </c>
+      <c r="C2" t="n">
         <v>618953.0935233366</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>618953.0935233365</v>
       </c>
-      <c r="D2" t="n">
-        <v>618953.0935233367</v>
-      </c>
       <c r="E2" t="n">
-        <v>599827.8647507951</v>
+        <v>593117.6657639858</v>
       </c>
       <c r="F2" t="n">
-        <v>599827.8647507952</v>
+        <v>593117.6657639857</v>
       </c>
       <c r="G2" t="n">
-        <v>599827.8647507951</v>
+        <v>593117.6657639865</v>
       </c>
       <c r="H2" t="n">
-        <v>599827.8647507952</v>
+        <v>599827.8647507949</v>
       </c>
       <c r="I2" t="n">
-        <v>599827.8647507948</v>
+        <v>599827.8647507949</v>
       </c>
       <c r="J2" t="n">
-        <v>576626.398782822</v>
+        <v>586024.0995658395</v>
       </c>
       <c r="K2" t="n">
-        <v>576626.3987828221</v>
+        <v>586024.0995658395</v>
       </c>
       <c r="L2" t="n">
-        <v>576626.398782822</v>
+        <v>586024.0995658394</v>
       </c>
       <c r="M2" t="n">
-        <v>576626.398782822</v>
+        <v>579313.9005790293</v>
       </c>
       <c r="N2" t="n">
-        <v>576626.3987828217</v>
+        <v>579313.9005790293</v>
       </c>
       <c r="O2" t="n">
         <v>550332.4683166783</v>
       </c>
       <c r="P2" t="n">
-        <v>550332.468316678</v>
+        <v>550332.4683166783</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215728.9162805136</v>
+        <v>212529.527518813</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3199.388761700584</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>149131.6131716206</v>
+        <v>150413.0003645692</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>164775.2337200961</v>
       </c>
       <c r="E4" t="n">
+        <v>41233.99236422226</v>
+      </c>
+      <c r="F4" t="n">
+        <v>41233.99236422226</v>
+      </c>
+      <c r="G4" t="n">
+        <v>41233.99236422226</v>
+      </c>
+      <c r="H4" t="n">
+        <v>45275.4031539329</v>
+      </c>
+      <c r="I4" t="n">
         <v>45275.40315393289</v>
       </c>
-      <c r="F4" t="n">
-        <v>45275.40315393289</v>
-      </c>
-      <c r="G4" t="n">
-        <v>45275.4031539329</v>
-      </c>
-      <c r="H4" t="n">
-        <v>45275.40315393289</v>
-      </c>
-      <c r="I4" t="n">
-        <v>45275.4031539329</v>
-      </c>
       <c r="J4" t="n">
-        <v>31301.65139420324</v>
+        <v>36961.68761930081</v>
       </c>
       <c r="K4" t="n">
-        <v>31301.65139420324</v>
+        <v>36961.68761930081</v>
       </c>
       <c r="L4" t="n">
-        <v>31301.65139420324</v>
+        <v>36961.68761930081</v>
       </c>
       <c r="M4" t="n">
-        <v>31301.65139420324</v>
+        <v>32920.27682959018</v>
       </c>
       <c r="N4" t="n">
-        <v>31301.65139420324</v>
+        <v>32920.27682959018</v>
       </c>
       <c r="O4" t="n">
         <v>15465.37373706398</v>
@@ -26478,13 +26478,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686482</v>
+        <v>73008.94500960557</v>
       </c>
       <c r="F5" t="n">
-        <v>73345.15677686482</v>
+        <v>73008.94500960557</v>
       </c>
       <c r="G5" t="n">
-        <v>73345.15677686482</v>
+        <v>73008.94500960557</v>
       </c>
       <c r="H5" t="n">
         <v>73345.15677686482</v>
@@ -26493,19 +26493,19 @@
         <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
-        <v>72182.65684334106</v>
+        <v>72653.52478550532</v>
       </c>
       <c r="K5" t="n">
-        <v>72182.65684334106</v>
+        <v>72653.52478550532</v>
       </c>
       <c r="L5" t="n">
-        <v>72182.65684334106</v>
+        <v>72653.52478550532</v>
       </c>
       <c r="M5" t="n">
-        <v>72182.65684334106</v>
+        <v>72317.31301824606</v>
       </c>
       <c r="N5" t="n">
-        <v>72182.65684334106</v>
+        <v>72317.31301824606</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>213853.2848316289</v>
+        <v>213853.2848316288</v>
       </c>
       <c r="C6" t="n">
+        <v>388808.7947247429</v>
+      </c>
+      <c r="D6" t="n">
         <v>388808.7947247428</v>
       </c>
-      <c r="D6" t="n">
-        <v>388808.794724743</v>
-      </c>
       <c r="E6" t="n">
-        <v>265478.3885394838</v>
+        <v>266277.2129035572</v>
       </c>
       <c r="F6" t="n">
-        <v>481207.3048199975</v>
+        <v>478806.7404223701</v>
       </c>
       <c r="G6" t="n">
-        <v>481207.3048199973</v>
+        <v>478806.7404223709</v>
       </c>
       <c r="H6" t="n">
-        <v>481207.3048199975</v>
+        <v>477957.5865088952</v>
       </c>
       <c r="I6" t="n">
-        <v>481207.3048199971</v>
+        <v>481156.9752705958</v>
       </c>
       <c r="J6" t="n">
-        <v>324010.477373657</v>
+        <v>325909.2315492076</v>
       </c>
       <c r="K6" t="n">
-        <v>473142.0905452778</v>
+        <v>476322.2319137768</v>
       </c>
       <c r="L6" t="n">
-        <v>473142.0905452777</v>
+        <v>476322.2319137767</v>
       </c>
       <c r="M6" t="n">
-        <v>312783.6400445949</v>
+        <v>313613.5465648674</v>
       </c>
       <c r="N6" t="n">
-        <v>473142.0905452775</v>
+        <v>473971.9970655501</v>
       </c>
       <c r="O6" t="n">
-        <v>464001.884334741</v>
+        <v>463821.3037420919</v>
       </c>
       <c r="P6" t="n">
-        <v>464001.8843347407</v>
+        <v>463821.3037420919</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="F2" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="G2" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="H2" t="n">
         <v>29.498941726338</v>
       </c>
       <c r="I2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="K2" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="L2" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="M2" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="N2" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,13 +26925,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.99923595212573</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,13 +27162,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.99923595212573</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>284.4352307360494</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>35.64567088911542</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>175.8405939583365</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>86.99084849031814</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>325.994634282359</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>295.2970888447077</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>87.99013316094199</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27830,16 +27830,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>325.994634282359</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>203.1574540822548</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>129.1276841407388</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -28076,7 +28076,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="C11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="D11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="E11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="F11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="G11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="H11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="I11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="T11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="U11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="V11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="W11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="X11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="C13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="D13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="E13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="F13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="G13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="H13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="I13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="J13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="K13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="L13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="M13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="N13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="O13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="P13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="R13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="S13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="T13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="U13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="V13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="W13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="X13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="C14" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="D14" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="E14" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="F14" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="G14" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="H14" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="I14" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="T14" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="U14" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="V14" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="W14" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="X14" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="C16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="D16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="E16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="F16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="G16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="H16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="I16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="J16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="K16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="L16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="M16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="N16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="O16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="P16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="R16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="S16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="T16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="U16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="V16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="W16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="X16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="C17" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="D17" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="E17" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="F17" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="G17" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="H17" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="I17" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="T17" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="U17" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="V17" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="W17" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="X17" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="C19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="D19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="E19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="F19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="G19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="H19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="I19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="J19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="K19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="L19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="M19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="N19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="O19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="P19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="R19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="S19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="T19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="U19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="V19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="W19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="X19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421227</v>
       </c>
     </row>
     <row r="20">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="C26" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="D26" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="E26" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="F26" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="G26" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="H26" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="I26" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="T26" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="U26" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="V26" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="W26" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="X26" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="C28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="D28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="E28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="F28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="G28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="H28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="I28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="J28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="K28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="L28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="M28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="N28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="O28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="P28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="R28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="S28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="T28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="U28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="V28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="W28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="X28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="C29" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="D29" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="E29" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="F29" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="G29" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="H29" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="I29" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="T29" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="U29" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="V29" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="W29" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="X29" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="C31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="D31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="E31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="F31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="G31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="H31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="I31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="J31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="K31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="L31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="M31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="N31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="O31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="P31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="R31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="S31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="T31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="U31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="V31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="W31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="X31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="C32" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="D32" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="E32" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="F32" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="G32" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="H32" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="I32" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="T32" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="U32" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="V32" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="W32" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="X32" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="C34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="D34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="E34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="F34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="G34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="H34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="I34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="J34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="K34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="L34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="M34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="N34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="O34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="P34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="R34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="S34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="T34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="U34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="V34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="W34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="X34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.67101545715706</v>
+        <v>21.27198540046859</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="C35" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="D35" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="E35" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="F35" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="G35" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="H35" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="I35" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="T35" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="U35" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="V35" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="W35" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="X35" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="C37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="D37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="E37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="F37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="G37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="H37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="I37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="J37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="K37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="L37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="M37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="N37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="O37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="P37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="R37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="S37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="T37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="U37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="V37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="W37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="X37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="C38" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="D38" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="E38" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="F38" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="G38" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="H38" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="I38" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="T38" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="U38" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="V38" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="W38" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="X38" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="C40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="D40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="E40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="F40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="G40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="H40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="I40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="J40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="K40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="L40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="M40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="N40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="O40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="P40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="R40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="S40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="T40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="U40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="V40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="W40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="X40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.67101545715706</v>
+        <v>17.27274944834286</v>
       </c>
     </row>
     <row r="41">
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>209.2450561298663</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>117.7337452574859</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>176.5650354103358</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="P8" t="n">
         <v>522.0635703700256</v>
@@ -35196,7 +35196,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10.70163254908674</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35491,13 +35491,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>423.670551254687</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533852</v>
+        <v>39.72450315321279</v>
       </c>
       <c r="K13" t="n">
-        <v>185.6124040720329</v>
+        <v>181.6131681199072</v>
       </c>
       <c r="L13" t="n">
-        <v>292.0212652415507</v>
+        <v>288.0220292894249</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227958</v>
+        <v>317.6856213706701</v>
       </c>
       <c r="N13" t="n">
-        <v>313.174479498308</v>
+        <v>309.1752435461822</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995442</v>
+        <v>287.6821404474185</v>
       </c>
       <c r="P13" t="n">
-        <v>237.2519116754414</v>
+        <v>233.2526757233157</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978329</v>
+        <v>91.68963486765756</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>70.29230409914815</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533852</v>
+        <v>39.72450315321279</v>
       </c>
       <c r="K16" t="n">
-        <v>185.6124040720329</v>
+        <v>181.6131681199072</v>
       </c>
       <c r="L16" t="n">
-        <v>292.0212652415507</v>
+        <v>288.0220292894249</v>
       </c>
       <c r="M16" t="n">
-        <v>321.6848573227958</v>
+        <v>317.6856213706701</v>
       </c>
       <c r="N16" t="n">
-        <v>313.174479498308</v>
+        <v>309.1752435461822</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995442</v>
+        <v>287.6821404474185</v>
       </c>
       <c r="P16" t="n">
-        <v>237.2519116754414</v>
+        <v>233.2526757233157</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978329</v>
+        <v>91.68963486765756</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P17" t="n">
         <v>534.50171506985</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
@@ -35971,7 +35971,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>714.3660512531817</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533852</v>
+        <v>39.72450315321279</v>
       </c>
       <c r="K19" t="n">
-        <v>185.6124040720329</v>
+        <v>181.6131681199072</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415507</v>
+        <v>288.0220292894249</v>
       </c>
       <c r="M19" t="n">
-        <v>321.6848573227958</v>
+        <v>317.6856213706701</v>
       </c>
       <c r="N19" t="n">
-        <v>313.174479498308</v>
+        <v>309.1752435461822</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995442</v>
+        <v>287.6821404474185</v>
       </c>
       <c r="P19" t="n">
-        <v>237.2519116754414</v>
+        <v>233.2526757233157</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978329</v>
+        <v>91.68963486765756</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>121.3646874378037</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>91.08941569106823</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>120.947516057361</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>474.7429345933427</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>29.89581283615759</v>
+        <v>35.49678277946911</v>
       </c>
       <c r="K28" t="n">
-        <v>171.784477802852</v>
+        <v>177.3854477461635</v>
       </c>
       <c r="L28" t="n">
-        <v>278.1933389723698</v>
+        <v>283.7943089156813</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8569310536149</v>
+        <v>313.4579009969264</v>
       </c>
       <c r="N28" t="n">
-        <v>299.346553229127</v>
+        <v>304.9475231724385</v>
       </c>
       <c r="O28" t="n">
-        <v>277.8534501303633</v>
+        <v>283.4544200736748</v>
       </c>
       <c r="P28" t="n">
-        <v>223.4239854062605</v>
+        <v>229.024955349572</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.86094455060234</v>
+        <v>87.46191449391388</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>234.0618456603421</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>504.6010349596356</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>29.89581283615759</v>
+        <v>35.49678277946911</v>
       </c>
       <c r="K31" t="n">
-        <v>171.784477802852</v>
+        <v>177.3854477461635</v>
       </c>
       <c r="L31" t="n">
-        <v>278.1933389723698</v>
+        <v>283.7943089156813</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8569310536149</v>
+        <v>313.4579009969264</v>
       </c>
       <c r="N31" t="n">
-        <v>299.346553229127</v>
+        <v>304.9475231724385</v>
       </c>
       <c r="O31" t="n">
-        <v>277.8534501303633</v>
+        <v>283.4544200736748</v>
       </c>
       <c r="P31" t="n">
-        <v>223.4239854062605</v>
+        <v>229.024955349572</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.86094455060234</v>
+        <v>87.46191449391388</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O32" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P32" t="n">
         <v>534.50171506985</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>283.8765749455203</v>
       </c>
       <c r="L33" t="n">
-        <v>372.0220958020416</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>29.89581283615759</v>
+        <v>35.49678277946912</v>
       </c>
       <c r="K34" t="n">
-        <v>171.784477802852</v>
+        <v>177.3854477461635</v>
       </c>
       <c r="L34" t="n">
-        <v>278.1933389723698</v>
+        <v>283.7943089156813</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8569310536149</v>
+        <v>313.4579009969265</v>
       </c>
       <c r="N34" t="n">
-        <v>299.346553229127</v>
+        <v>304.9475231724385</v>
       </c>
       <c r="O34" t="n">
-        <v>277.8534501303633</v>
+        <v>283.4544200736748</v>
       </c>
       <c r="P34" t="n">
-        <v>223.4239854062605</v>
+        <v>229.024955349572</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.86094455060234</v>
+        <v>87.46191449391388</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N35" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O35" t="n">
         <v>650.1321781990958</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>405.4769987570326</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
@@ -37408,7 +37408,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>29.89581283615759</v>
+        <v>31.49754682734339</v>
       </c>
       <c r="K37" t="n">
-        <v>171.784477802852</v>
+        <v>173.3862117940378</v>
       </c>
       <c r="L37" t="n">
-        <v>278.1933389723698</v>
+        <v>279.7950729635555</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8569310536149</v>
+        <v>309.4586650448007</v>
       </c>
       <c r="N37" t="n">
-        <v>299.346553229127</v>
+        <v>300.9482872203129</v>
       </c>
       <c r="O37" t="n">
-        <v>277.8534501303633</v>
+        <v>279.4551841215491</v>
       </c>
       <c r="P37" t="n">
-        <v>223.4239854062605</v>
+        <v>225.0257193974463</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.86094455060234</v>
+        <v>83.46267854178815</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O38" t="n">
         <v>650.1321781990958</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>70.29230409914815</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>120.947516057361</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>29.89581283615759</v>
+        <v>31.49754682734339</v>
       </c>
       <c r="K40" t="n">
-        <v>171.784477802852</v>
+        <v>173.3862117940378</v>
       </c>
       <c r="L40" t="n">
-        <v>278.1933389723698</v>
+        <v>279.7950729635555</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8569310536149</v>
+        <v>309.4586650448007</v>
       </c>
       <c r="N40" t="n">
-        <v>299.346553229127</v>
+        <v>300.9482872203129</v>
       </c>
       <c r="O40" t="n">
-        <v>277.8534501303633</v>
+        <v>279.4551841215491</v>
       </c>
       <c r="P40" t="n">
-        <v>223.4239854062605</v>
+        <v>225.0257193974463</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.86094455060234</v>
+        <v>83.46267854178815</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>240.5746369388475</v>
       </c>
       <c r="L42" t="n">
-        <v>90.37376681451964</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>240.5746369388475</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>435.3350991233255</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>711.0677682281761</v>
